--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_47_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_47_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.6604868791096186, 2.2869926389084347]</t>
+          <t>[1.659262011953798, 2.2882175060642553]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.19364008762480678, 0.5154165460303979]</t>
+          <t>[0.1936456402403588, 0.5154109934148459]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>5.812279766326256e-05</v>
+        <v>5.809408625134793e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>5.812279766326256e-05</v>
+        <v>5.809408625134793e-05</v>
       </c>
       <c r="W2" t="n">
         <v>19.9555555555559</v>
